--- a/data/pm.xlsx
+++ b/data/pm.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet1!$C$3623:$D$3630</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet1!$C$3623:$D$3634</definedName>
     <definedName name="ExternalData_3" localSheetId="0" hidden="1">Sheet1!$A$1:$D$3622</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14511" uniqueCount="3626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14528" uniqueCount="3631">
   <si>
     <t>1</t>
   </si>
@@ -10921,6 +10921,21 @@
   </si>
   <si>
     <t>NUMBER</t>
+  </si>
+  <si>
+    <t>3620</t>
+  </si>
+  <si>
+    <t>begin update 61</t>
+  </si>
+  <si>
+    <t>3621</t>
+  </si>
+  <si>
+    <t>3622</t>
+  </si>
+  <si>
+    <t>3623</t>
   </si>
 </sst>
 </file>
@@ -10996,11 +11011,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -11020,34 +11063,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -11088,23 +11103,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EEE7ACE6-A12D-4407-9FC2-0E1DDF6583EE}" name="pm__2" displayName="pm__2" ref="A1:D3622" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EEE7ACE6-A12D-4407-9FC2-0E1DDF6583EE}" name="pm__2" displayName="pm__2" ref="A1:D3622" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{36DB1141-479A-4BA2-B583-1BA8E031CAB3}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{3187D098-7EDE-4F6B-AD8B-0B024A50C26F}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{ADC061D4-ECB7-40D8-8058-829E973BB03E}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{D400ABF6-9451-47F4-B8E1-8A373ABE6251}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{36DB1141-479A-4BA2-B583-1BA8E031CAB3}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{3187D098-7EDE-4F6B-AD8B-0B024A50C26F}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{ADC061D4-ECB7-40D8-8058-829E973BB03E}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{D400ABF6-9451-47F4-B8E1-8A373ABE6251}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B1635456-6458-4F3F-9E7A-E139E2B4CE6A}" name="parcel_map45" displayName="parcel_map45" ref="C3623:E3630" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B1635456-6458-4F3F-9E7A-E139E2B4CE6A}" name="parcel_map45" displayName="parcel_map45" ref="C3623:E3634" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4F1DA7DB-9990-41B0-8850-0B6CC0BC42BA}" uniqueName="1" name="bookpage" queryTableFieldId="1" headerRowDxfId="13" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{F1E334B6-F5FF-4560-832D-E800236B1C3F}" uniqueName="2" name="number" queryTableFieldId="2" headerRowDxfId="12" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{902B1626-9155-4F81-B66A-8C1B6A775E04}" uniqueName="3" name="Column1" queryTableFieldId="3" headerRowDxfId="11" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{4F1DA7DB-9990-41B0-8850-0B6CC0BC42BA}" uniqueName="1" name="bookpage" queryTableFieldId="1" headerRowDxfId="5" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{F1E334B6-F5FF-4560-832D-E800236B1C3F}" uniqueName="2" name="number" queryTableFieldId="2" headerRowDxfId="3" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{902B1626-9155-4F81-B66A-8C1B6A775E04}" uniqueName="3" name="Column1" queryTableFieldId="3" headerRowDxfId="1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -11373,10 +11388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D2B8DA-91FF-4A82-AA87-9433552C78E6}">
-  <dimension ref="A1:E3630"/>
+  <dimension ref="A1:E3634"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2927" workbookViewId="0">
-      <selection activeCell="H2945" sqref="H2945"/>
+    <sheetView tabSelected="1" topLeftCell="A3611" workbookViewId="0">
+      <selection activeCell="A3635" sqref="A3635"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -62216,6 +62231,68 @@
         <v>3619</v>
       </c>
       <c r="E3630" s="1"/>
+    </row>
+    <row r="3631" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3631" s="2" t="s">
+        <v>3621</v>
+      </c>
+      <c r="B3631" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3631" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3631" s="1" t="s">
+        <v>3626</v>
+      </c>
+      <c r="E3631" s="1" t="s">
+        <v>3627</v>
+      </c>
+    </row>
+    <row r="3632" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3632" s="2" t="s">
+        <v>3621</v>
+      </c>
+      <c r="B3632" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3632" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3632" s="1" t="s">
+        <v>3628</v>
+      </c>
+      <c r="E3632" s="1"/>
+    </row>
+    <row r="3633" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3633" s="2" t="s">
+        <v>3621</v>
+      </c>
+      <c r="B3633" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3633" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3633" s="1" t="s">
+        <v>3629</v>
+      </c>
+      <c r="E3633" s="1"/>
+    </row>
+    <row r="3634" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3634" s="2" t="s">
+        <v>3621</v>
+      </c>
+      <c r="B3634" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3634" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3634" s="1" t="s">
+        <v>3630</v>
+      </c>
+      <c r="E3634" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/pm.xlsx
+++ b/data/pm.xlsx
@@ -1,8 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F783E78-987F-4D19-891A-E187D4D27077}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10,7 +11,7 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet1!$C$3623:$D$3634</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet1!$C$3623:$D$3635</definedName>
     <definedName name="ExternalData_3" localSheetId="0" hidden="1">Sheet1!$A$1:$D$3622</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14528" uniqueCount="3631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14533" uniqueCount="3633">
   <si>
     <t>1</t>
   </si>
@@ -10936,6 +10937,12 @@
   </si>
   <si>
     <t>3623</t>
+  </si>
+  <si>
+    <t>3624</t>
+  </si>
+  <si>
+    <t>begin update 63</t>
   </si>
 </sst>
 </file>
@@ -11388,10 +11395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D2B8DA-91FF-4A82-AA87-9433552C78E6}">
-  <dimension ref="A1:E3634"/>
+  <dimension ref="A1:E3635"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3611" workbookViewId="0">
-      <selection activeCell="A3635" sqref="A3635"/>
+    <sheetView tabSelected="1" topLeftCell="A3608" workbookViewId="0">
+      <selection activeCell="E3635" sqref="E3635"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -62293,6 +62300,23 @@
         <v>3630</v>
       </c>
       <c r="E3634" s="1"/>
+    </row>
+    <row r="3635" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3635" s="2" t="s">
+        <v>3621</v>
+      </c>
+      <c r="B3635" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3635" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3635" s="1" t="s">
+        <v>3631</v>
+      </c>
+      <c r="E3635" s="1" t="s">
+        <v>3632</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
